--- a/output/fit_clients/fit_round_436.xlsx
+++ b/output/fit_clients/fit_round_436.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1732192266.604746</v>
+        <v>2261008612.214632</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1074143997075697</v>
+        <v>0.09344584281051294</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04517724578985708</v>
+        <v>0.04097568243682804</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>866096092.9211693</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2467287619.89904</v>
+        <v>1993986823.037282</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1673905597803328</v>
+        <v>0.1644645345395128</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0340012357787508</v>
+        <v>0.03539073654217963</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1233643922.40029</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4861195919.205965</v>
+        <v>3872218190.857235</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1129644922362247</v>
+        <v>0.1641197598828568</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0375576631286406</v>
+        <v>0.03155841972233182</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>157</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2430598034.804982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4046332719.266524</v>
+        <v>2634184482.81425</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09209546610468923</v>
+        <v>0.07663582783827337</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03373416731860582</v>
+        <v>0.03194794872233248</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>161</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2023166360.285053</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2119693257.193847</v>
+        <v>2036789375.688023</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1412796849929729</v>
+        <v>0.1314444233110746</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04936869077239987</v>
+        <v>0.05041097674485295</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>82</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1059846645.258708</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2589660730.353616</v>
+        <v>1953654874.894473</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1016886116105649</v>
+        <v>0.09271795897159844</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03700243392725332</v>
+        <v>0.03061882320513062</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>137</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1294830369.644645</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3646467470.512678</v>
+        <v>3679072313.113944</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1581802358663423</v>
+        <v>0.1797473547051845</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02850336792812757</v>
+        <v>0.02922758987350874</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>138</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1823233858.87524</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2040256455.928712</v>
+        <v>1844419695.477915</v>
       </c>
       <c r="F9" t="n">
-        <v>0.159493372976486</v>
+        <v>0.1949831333422621</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0362744702980657</v>
+        <v>0.02881871108641476</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1020128249.002149</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3938953051.308747</v>
+        <v>3660607679.841916</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1708101839264203</v>
+        <v>0.1842051860267546</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04984580385299014</v>
+        <v>0.03606743691749076</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>183</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1969476542.811643</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3887717222.512253</v>
+        <v>4014370973.902183</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1617057147020108</v>
+        <v>0.1769402977331288</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0421950866583714</v>
+        <v>0.03085234269388045</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>180</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1943858616.162512</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2753349863.091419</v>
+        <v>2335217826.647802</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1471493004930499</v>
+        <v>0.1757577521926928</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05015344994683731</v>
+        <v>0.04618873408144931</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>149</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1376674926.975372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3269238774.69662</v>
+        <v>3259057752.938608</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08048231923835172</v>
+        <v>0.0797231382469322</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03141354925895689</v>
+        <v>0.02968191215570625</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>147</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1634619479.410167</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2678374998.56441</v>
+        <v>2996575753.687729</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1176030729518912</v>
+        <v>0.1527214077140238</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0375798995515568</v>
+        <v>0.03900475708227663</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>139</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1339187557.027842</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1183265776.616183</v>
+        <v>1205651305.073267</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07982530208338522</v>
+        <v>0.1016267294453575</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04209155789295787</v>
+        <v>0.03236471652319322</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>591632902.022524</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2002488183.768852</v>
+        <v>2445083084.187273</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1015751630267664</v>
+        <v>0.09773572472450384</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04722128193195825</v>
+        <v>0.05186205122505266</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>90</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1001244167.178468</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4474460524.392482</v>
+        <v>4031092590.456513</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1303117774152922</v>
+        <v>0.11137520148615</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03981983289410934</v>
+        <v>0.05082479833724103</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>128</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2237230273.317829</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3969268617.544585</v>
+        <v>3159794008.573823</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1544166126288573</v>
+        <v>0.1143848474620534</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03113788775127882</v>
+        <v>0.02339219173019727</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>143</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1984634268.871273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>898437554.6947298</v>
+        <v>854577215.8263202</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1327819754104342</v>
+        <v>0.1219822989749495</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02119054070192547</v>
+        <v>0.0274173200192101</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>449218781.9168746</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2569454400.892048</v>
+        <v>1781712381.452447</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1198810932997371</v>
+        <v>0.1402589204193372</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02421639786170936</v>
+        <v>0.02808995630215645</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>60</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1284727166.153481</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2546696243.35181</v>
+        <v>2687998626.729955</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07183543319464854</v>
+        <v>0.09533622199092563</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03973122838204266</v>
+        <v>0.02885620377019616</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>34</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1273348105.36961</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3262908568.055202</v>
+        <v>3542649019.16231</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1173845145856597</v>
+        <v>0.1116077456276263</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05636679454250915</v>
+        <v>0.04139491763876517</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>121</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1631454329.833202</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1405307202.57136</v>
+        <v>1385208838.055864</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1406410569782857</v>
+        <v>0.1695278963922023</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04493599661773915</v>
+        <v>0.0356848058372728</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>702653603.1893491</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2905104748.03956</v>
+        <v>4145904350.45511</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09361266637873883</v>
+        <v>0.1050487675372772</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03595130271045521</v>
+        <v>0.02343737270785738</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>127</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1452552415.643357</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1302842552.211471</v>
+        <v>914051877.4739673</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08748703654559677</v>
+        <v>0.1010556597088489</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01989893310521086</v>
+        <v>0.02849760625196323</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>651421270.4506817</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1446699225.476093</v>
+        <v>1145608564.989652</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1080534874526072</v>
+        <v>0.08603793553425916</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03302608861919933</v>
+        <v>0.02360610862544178</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>723349694.2160358</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4711178573.059524</v>
+        <v>4445205300.875983</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1167030505766065</v>
+        <v>0.1532034520594173</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02607091010675615</v>
+        <v>0.01985443903449366</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>102</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2355589261.355042</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2614036216.440423</v>
+        <v>2634052575.145937</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1013265994416481</v>
+        <v>0.1360002365053021</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03068116321921695</v>
+        <v>0.04859679504775134</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>142</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1307018085.940143</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4956941847.002363</v>
+        <v>5621087687.69343</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1197030203385283</v>
+        <v>0.1095174109846141</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03330238320444989</v>
+        <v>0.03392140630027211</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>193</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2478470874.11427</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1741128291.278481</v>
+        <v>1770641235.291714</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1209249144592569</v>
+        <v>0.1129822592170297</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03558125547690288</v>
+        <v>0.03039562421873002</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>870564153.6633066</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1076875379.302776</v>
+        <v>919592258.9709558</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06976203722360701</v>
+        <v>0.09942445514031384</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0398588931197214</v>
+        <v>0.04904102944780251</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>538437670.1124334</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1506022172.771047</v>
+        <v>1421354648.191223</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1105688075615981</v>
+        <v>0.116878317051278</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03577340720917827</v>
+        <v>0.02450313646260329</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>753011155.9995416</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2689683473.503796</v>
+        <v>2834864413.640283</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1900037296552048</v>
+        <v>0.1263335129176382</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04778345209269778</v>
+        <v>0.04423380932616052</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>133</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1344841758.81558</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1122122658.829738</v>
+        <v>1245246628.729256</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09890753299531579</v>
+        <v>0.08971343649421903</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0267143836316626</v>
+        <v>0.01914602703996674</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>561061347.228637</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1249734467.291241</v>
+        <v>1224514134.039445</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08327372089899569</v>
+        <v>0.09863030586827667</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03425184747254688</v>
+        <v>0.03031665018422442</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>624867197.4794962</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2951245385.557251</v>
+        <v>3095943740.175353</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1606787142893076</v>
+        <v>0.1411331766267539</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02234108972882572</v>
+        <v>0.02043969721317455</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>109</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1475622678.617765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1928748993.283694</v>
+        <v>2471600442.331024</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09029032898368408</v>
+        <v>0.07350842810456217</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03489145152239618</v>
+        <v>0.03676647774997984</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>118</v>
-      </c>
-      <c r="J37" t="n">
-        <v>964374514.1749396</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1632444484.863131</v>
+        <v>1803745885.034627</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1098053469418892</v>
+        <v>0.07540764766095073</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03969098767491377</v>
+        <v>0.03375745219915336</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>816222272.9945676</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1569058291.06438</v>
+        <v>2178992149.4373</v>
       </c>
       <c r="F39" t="n">
-        <v>0.133722006423359</v>
+        <v>0.1498951150461195</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02459476503743536</v>
+        <v>0.02787117253972511</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>784529205.5357641</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1256922543.223193</v>
+        <v>1727799785.817457</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1432287275614684</v>
+        <v>0.1098526381843147</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05608649253488677</v>
+        <v>0.05295641919005034</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>628461298.6806885</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2087778050.632315</v>
+        <v>2067607918.458497</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1326792193751011</v>
+        <v>0.1546655135637097</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03888294144352648</v>
+        <v>0.03543099960667107</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>109</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1043889090.966885</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2659677194.817341</v>
+        <v>3834402199.877913</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1229024082447875</v>
+        <v>0.08373231625301154</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03010150241674866</v>
+        <v>0.03353618010816686</v>
       </c>
       <c r="H42" t="b">
         <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>142</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1329838534.436688</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2500749373.674036</v>
+        <v>2809500804.955488</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1320057493740787</v>
+        <v>0.2029470983426383</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0187440059384766</v>
+        <v>0.01858784910926115</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>151</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1250374735.429507</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1773178473.451064</v>
+        <v>1840659693.242821</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07729232957843639</v>
+        <v>0.07380311124613556</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03702374462022624</v>
+        <v>0.02621538623742607</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>886589297.8245012</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2065652091.294074</v>
+        <v>2501853287.3243</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1314197156694533</v>
+        <v>0.1294038878853721</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04841303654868873</v>
+        <v>0.0546061024385024</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1032826043.135058</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4387812615.111022</v>
+        <v>4316030068.845363</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1663579229914483</v>
+        <v>0.1447381094862456</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05620098960582006</v>
+        <v>0.04584258048786949</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>155</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2193906299.2982</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3824516745.734619</v>
+        <v>4963095745.778531</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1620652232253844</v>
+        <v>0.1331021224718509</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04339499727596244</v>
+        <v>0.05234665876403975</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>117</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1912258362.067343</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3198023118.161894</v>
+        <v>4375266758.017006</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07654272877614522</v>
+        <v>0.0878158992480261</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02921777976158524</v>
+        <v>0.03703237395837339</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>142</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1599011640.067326</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1668522621.649958</v>
+        <v>1229894507.505797</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1359677502612906</v>
+        <v>0.1290364479071342</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03400158212983931</v>
+        <v>0.03325726016097924</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>834261316.6736349</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3619054369.253906</v>
+        <v>3525832946.404302</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1258400697833112</v>
+        <v>0.1361185714465209</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03291228567620725</v>
+        <v>0.04304611587073948</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>148</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1809527200.436638</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1073511184.175363</v>
+        <v>1227456497.282851</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1445899122064085</v>
+        <v>0.1777212195083175</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03960429072115593</v>
+        <v>0.03858261915702849</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>536755664.1489149</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5110135620.442313</v>
+        <v>5003074075.186781</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1316304116059009</v>
+        <v>0.1190120340942208</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04231656433637564</v>
+        <v>0.06018256913258415</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>180</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2555067801.380852</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2791512577.256892</v>
+        <v>2532099841.667268</v>
       </c>
       <c r="F53" t="n">
-        <v>0.204620149649665</v>
+        <v>0.1499223898679902</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02862017271545597</v>
+        <v>0.03245418821077704</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>127</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1395756335.499117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4554754715.496558</v>
+        <v>4780536127.234818</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1512056817257851</v>
+        <v>0.1421031983967422</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0511556977750182</v>
+        <v>0.04117888529586108</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>143</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2277377465.38462</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3300153751.740168</v>
+        <v>3760237411.543609</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1935116456464811</v>
+        <v>0.1587829578306889</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02134879181803855</v>
+        <v>0.02604224392713996</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>114</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1650076819.939153</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1385303019.539447</v>
+        <v>1334957930.495676</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1617252632874977</v>
+        <v>0.1558939261184797</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04330482136166406</v>
+        <v>0.04648217495200754</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>692651569.0564177</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3181201964.178406</v>
+        <v>3027495389.045788</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1370344758551216</v>
+        <v>0.1720450376224456</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02115745321568493</v>
+        <v>0.02568273716557551</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>138</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1590601001.726328</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1884515550.202109</v>
+        <v>1427368521.880589</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1782688801864176</v>
+        <v>0.1508145310599958</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0308663470779474</v>
+        <v>0.03072315501279492</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>942257771.1637</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4255532328.632748</v>
+        <v>5058158118.438768</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08832701007510499</v>
+        <v>0.1296640615938326</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0479331092247992</v>
+        <v>0.03930937876907608</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>119</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2127766127.954881</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2484089566.88597</v>
+        <v>3102474047.529604</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1248592060488736</v>
+        <v>0.1988500167954954</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03189054449536649</v>
+        <v>0.02759844265358427</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>136</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1242044799.693855</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3043123432.870761</v>
+        <v>2545030241.694068</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1569765213568815</v>
+        <v>0.1405101125211794</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02818234090449592</v>
+        <v>0.02269529919014645</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>149</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1521561692.854561</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1666624562.353309</v>
+        <v>1468739699.403674</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1832627741472328</v>
+        <v>0.1712848919137905</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04109680748034651</v>
+        <v>0.03072900211601528</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>833312289.269932</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4693516655.054426</v>
+        <v>3518143711.357463</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09937056688323058</v>
+        <v>0.09401475689213469</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04564639851644406</v>
+        <v>0.0315337808030685</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>125</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2346758358.985396</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4557509109.043767</v>
+        <v>5519749553.220975</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1426196015809546</v>
+        <v>0.1470832295007858</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02674049353531698</v>
+        <v>0.03221116982684773</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>135</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2278754629.60545</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5706371132.369715</v>
+        <v>5396173652.54012</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1336232402406398</v>
+        <v>0.1164641257927931</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03185763035600953</v>
+        <v>0.02768265914493974</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>156</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2853185482.945943</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4963813229.738356</v>
+        <v>4451070457.712449</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1568104261157657</v>
+        <v>0.1472964740409604</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04737008491825185</v>
+        <v>0.03771165411653985</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>127</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2481906640.108052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2675690708.955649</v>
+        <v>2676075369.491199</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09474381098342696</v>
+        <v>0.09567089363527459</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0322578569456664</v>
+        <v>0.03767136279307819</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>140</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1337845400.249348</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5461006386.200524</v>
+        <v>5937872064.348125</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1563206633408426</v>
+        <v>0.1368264805526755</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04514320511359138</v>
+        <v>0.03702232923813431</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>140</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2730503277.453862</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2420064675.88507</v>
+        <v>2175106286.379389</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1390751372883833</v>
+        <v>0.1277711066707829</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03737382526149222</v>
+        <v>0.04698759006826289</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1210032397.256181</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2584597348.78203</v>
+        <v>3453933534.286551</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1022555715566214</v>
+        <v>0.06245286654537592</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04590711848096183</v>
+        <v>0.03486076204459418</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>124</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1292298624.324417</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5165208429.421136</v>
+        <v>4109670313.931725</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1258643877253923</v>
+        <v>0.1847417397340979</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02784991063665557</v>
+        <v>0.02867774157776663</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>159</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2582604332.742808</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1693841874.555152</v>
+        <v>1682017882.753234</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07748763523650413</v>
+        <v>0.07950944681653194</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05119789809585447</v>
+        <v>0.03374470695404585</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>846920933.014148</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2479423920.144983</v>
+        <v>2378312278.193465</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08412450458469252</v>
+        <v>0.09325504651723639</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0414429352266057</v>
+        <v>0.04233518951741173</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>165</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1239712003.745391</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>4013213854.271753</v>
+        <v>2934829707.069296</v>
       </c>
       <c r="F74" t="n">
-        <v>0.167642307328836</v>
+        <v>0.1351608244444299</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02939958005882411</v>
+        <v>0.0250721564140724</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>148</v>
-      </c>
-      <c r="J74" t="n">
-        <v>2006606904.969192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2415409834.15365</v>
+        <v>2152455756.120516</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1406337642182015</v>
+        <v>0.1140340055920605</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03190762803282112</v>
+        <v>0.03252427971142637</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1207704842.306149</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5178080477.413876</v>
+        <v>3490683671.634829</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1215253734550129</v>
+        <v>0.1009704142940996</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02248028673443213</v>
+        <v>0.02139386166211748</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>109</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2589040272.839778</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2277531130.159492</v>
+        <v>1693793014.049194</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1612992076692685</v>
+        <v>0.1331088958009833</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02638903557070984</v>
+        <v>0.02885749919446517</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1138765667.642662</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3830690419.115621</v>
+        <v>4212546312.998566</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08432102570071742</v>
+        <v>0.1220150052434724</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05074697081376407</v>
+        <v>0.04507796558148845</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>151</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1915345187.429624</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1328171770.032019</v>
+        <v>1567208246.675033</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1593212392895571</v>
+        <v>0.1713373435315312</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03947129940683401</v>
+        <v>0.03015598521545755</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>664085889.1963254</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4849548367.788413</v>
+        <v>3753295886.1451</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1061142909914977</v>
+        <v>0.07759900716553418</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03763811623999801</v>
+        <v>0.02602688251434324</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>94</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2424774225.637148</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4683644118.496804</v>
+        <v>3911597897.070809</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09542228854874869</v>
+        <v>0.1264101098166159</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02557213470147625</v>
+        <v>0.02725180999192808</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>99</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2341822047.843465</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3514134962.276796</v>
+        <v>5421669458.650023</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1973236040135412</v>
+        <v>0.173139474077991</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02397834710810412</v>
+        <v>0.02493713613767547</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>153</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1757067548.032267</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2233744999.720529</v>
+        <v>2037869078.806406</v>
       </c>
       <c r="F83" t="n">
-        <v>0.146754381302225</v>
+        <v>0.09826906313600124</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03984407922237728</v>
+        <v>0.02748372347361082</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1116872514.309865</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2440575792.419385</v>
+        <v>1981192565.567429</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09268683025870021</v>
+        <v>0.08024979272393469</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04085519015763365</v>
+        <v>0.03978107187646392</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>6</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1220287836.721538</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2863189741.359622</v>
+        <v>3303293260.795425</v>
       </c>
       <c r="F85" t="n">
-        <v>0.174000774449141</v>
+        <v>0.1384227409826662</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04345075393539963</v>
+        <v>0.03442162587227503</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>165</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1431594915.746209</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2562396807.909003</v>
+        <v>2085405931.834563</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1682244173556582</v>
+        <v>0.1529768643723448</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02380356897317843</v>
+        <v>0.0190721457364917</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>55</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1281198509.791552</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>996423738.7100741</v>
+        <v>1239230234.572159</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1860039172583733</v>
+        <v>0.1478184699887048</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04053307291045601</v>
+        <v>0.03966078522471894</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>498211872.7786064</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2938865700.163376</v>
+        <v>2688982569.998512</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1434270596606039</v>
+        <v>0.1130484628722581</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03224820665666609</v>
+        <v>0.02586758747646314</v>
       </c>
       <c r="H88" t="b">
         <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>172</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1469432874.50506</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3273523821.801315</v>
+        <v>2407823933.964468</v>
       </c>
       <c r="F89" t="n">
-        <v>0.115056260874946</v>
+        <v>0.1581137246409484</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0394031305339349</v>
+        <v>0.0357818602324942</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>147</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1636761928.965903</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1644888299.817525</v>
+        <v>1305059558.402045</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08950770954102413</v>
+        <v>0.09691666933428236</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03820964931697216</v>
+        <v>0.04086919456947759</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>822444155.2088729</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1756305482.941197</v>
+        <v>1585320938.572548</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1418051281168072</v>
+        <v>0.1731650813141843</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06203756835383991</v>
+        <v>0.06077820843683291</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>878152746.2226285</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2726099025.259592</v>
+        <v>2833888301.025153</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08689185225046314</v>
+        <v>0.09427372099363826</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04695032006182424</v>
+        <v>0.03444961567987638</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>121</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1363049513.688779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3902366804.929883</v>
+        <v>4473903134.586637</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1301701428939577</v>
+        <v>0.1173920982710868</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05403886177570714</v>
+        <v>0.05378825833856585</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>132</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1951183409.414648</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2162159706.460831</v>
+        <v>1658147925.35403</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1576485857339106</v>
+        <v>0.1402681487481234</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02731610719452087</v>
+        <v>0.02805066491785755</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1081079872.677603</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2192187082.459709</v>
+        <v>2733072785.891595</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09593636518015397</v>
+        <v>0.08594217574692808</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03319197003506234</v>
+        <v>0.05163475492812871</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>105</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1096093599.715442</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2037755325.097214</v>
+        <v>2073880168.929299</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09582073403699486</v>
+        <v>0.1242348856159712</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03831425769285485</v>
+        <v>0.03771001159410567</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1018877645.533817</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5338126242.709495</v>
+        <v>4149681485.203382</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1290693379594886</v>
+        <v>0.1110863962852433</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01857267768744693</v>
+        <v>0.02604782609682635</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>140</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2669063285.377387</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3891022728.685353</v>
+        <v>3655523070.015969</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1105400158649063</v>
+        <v>0.08250225259690892</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02121808161624321</v>
+        <v>0.03061179824520435</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>121</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1945511409.462026</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2170991564.556048</v>
+        <v>2094492192.512852</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1340533680462742</v>
+        <v>0.1180786642903783</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02464522911689423</v>
+        <v>0.03161841978261384</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>138</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1085495708.156277</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4363237245.837132</v>
+        <v>4661393689.012876</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1746195554614781</v>
+        <v>0.1272180253604334</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02584515537098997</v>
+        <v>0.01924893470113988</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>138</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2181618722.613808</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2671444277.266623</v>
+        <v>2907494108.533625</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1443139639487721</v>
+        <v>0.1570404720187394</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03732629705816948</v>
+        <v>0.05582703586405882</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>178</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1335722184.275037</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_436.xlsx
+++ b/output/fit_clients/fit_round_436.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2261008612.214632</v>
+        <v>2234449083.936922</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09344584281051294</v>
+        <v>0.08117859320154311</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04097568243682804</v>
+        <v>0.03804208663904702</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1993986823.037282</v>
+        <v>1981977829.524192</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1644645345395128</v>
+        <v>0.1123582968548499</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03539073654217963</v>
+        <v>0.05046131279311639</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3872218190.857235</v>
+        <v>5015069364.237362</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1641197598828568</v>
+        <v>0.1261379353070151</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03155841972233182</v>
+        <v>0.02842438276695047</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2634184482.81425</v>
+        <v>3826170601.070099</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07663582783827337</v>
+        <v>0.09720302930351146</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03194794872233248</v>
+        <v>0.04514430708627825</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2036789375.688023</v>
+        <v>2303297521.35777</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1314444233110746</v>
+        <v>0.09438405360872852</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05041097674485295</v>
+        <v>0.03963018331003582</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1953654874.894473</v>
+        <v>2992515841.063742</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09271795897159844</v>
+        <v>0.09354319072153799</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03061882320513062</v>
+        <v>0.03597495272184473</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3679072313.113944</v>
+        <v>2600130949.007793</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1797473547051845</v>
+        <v>0.175744846779348</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02922758987350874</v>
+        <v>0.02847810788108365</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1844419695.477915</v>
+        <v>1748301219.729941</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1949831333422621</v>
+        <v>0.1311725606198917</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02881871108641476</v>
+        <v>0.03023346889109606</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3660607679.841916</v>
+        <v>5076766310.741191</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1842051860267546</v>
+        <v>0.1415037949836979</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03606743691749076</v>
+        <v>0.0401890735887475</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4014370973.902183</v>
+        <v>4028018215.574373</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1769402977331288</v>
+        <v>0.1802071486938922</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03085234269388045</v>
+        <v>0.04025614676928048</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2335217826.647802</v>
+        <v>2567751049.134395</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1757577521926928</v>
+        <v>0.1565346228724684</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04618873408144931</v>
+        <v>0.05229389142422915</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3259057752.938608</v>
+        <v>5035024938.872447</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0797231382469322</v>
+        <v>0.100667459030696</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02968191215570625</v>
+        <v>0.03115058742177579</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2996575753.687729</v>
+        <v>2523857151.47576</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1527214077140238</v>
+        <v>0.1352776564608877</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03900475708227663</v>
+        <v>0.0359982941274563</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1205651305.073267</v>
+        <v>1161666480.70667</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1016267294453575</v>
+        <v>0.06753664583314767</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03236471652319322</v>
+        <v>0.04462145953691139</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2445083084.187273</v>
+        <v>1897378588.72423</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09773572472450384</v>
+        <v>0.07162057047966207</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05186205122505266</v>
+        <v>0.04052713531744454</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4031092590.456513</v>
+        <v>4444167047.206579</v>
       </c>
       <c r="F17" t="n">
-        <v>0.11137520148615</v>
+        <v>0.1475060062143547</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05082479833724103</v>
+        <v>0.04031993394169726</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3159794008.573823</v>
+        <v>2963603467.063335</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1143848474620534</v>
+        <v>0.1636830191862951</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02339219173019727</v>
+        <v>0.02304460661221533</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>854577215.8263202</v>
+        <v>1310302415.622255</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1219822989749495</v>
+        <v>0.1766549675206946</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0274173200192101</v>
+        <v>0.02174432914328993</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1781712381.452447</v>
+        <v>2725271197.60294</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1402589204193372</v>
+        <v>0.1423614090082065</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02808995630215645</v>
+        <v>0.02125874695161603</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2687998626.729955</v>
+        <v>1780597798.211667</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09533622199092563</v>
+        <v>0.06762242903480312</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02885620377019616</v>
+        <v>0.03770124501133021</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3542649019.16231</v>
+        <v>2773931879.070323</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1116077456276263</v>
+        <v>0.1001223775792355</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04139491763876517</v>
+        <v>0.04881196267823296</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1385208838.055864</v>
+        <v>1044082750.848695</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1695278963922023</v>
+        <v>0.1305148372226928</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0356848058372728</v>
+        <v>0.03307593080359258</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4145904350.45511</v>
+        <v>4074404306.625585</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1050487675372772</v>
+        <v>0.1381543901716436</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02343737270785738</v>
+        <v>0.02518401551590046</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>914051877.4739673</v>
+        <v>1101888596.714595</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1010556597088489</v>
+        <v>0.1227018724759468</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02849760625196323</v>
+        <v>0.02141350415974157</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1145608564.989652</v>
+        <v>1432299702.4772</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08603793553425916</v>
+        <v>0.1186113983084955</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02360610862544178</v>
+        <v>0.03233750006505707</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4445205300.875983</v>
+        <v>3819736592.512311</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1532034520594173</v>
+        <v>0.1016384713505154</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01985443903449366</v>
+        <v>0.01789872509644175</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2634052575.145937</v>
+        <v>3445732334.730776</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1360002365053021</v>
+        <v>0.1087961977594899</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04859679504775134</v>
+        <v>0.03353165410929206</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5621087687.69343</v>
+        <v>4503189273.032453</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1095174109846141</v>
+        <v>0.1129255868554339</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03392140630027211</v>
+        <v>0.04358996597520045</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1770641235.291714</v>
+        <v>1970136238.356355</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1129822592170297</v>
+        <v>0.1073392102720202</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03039562421873002</v>
+        <v>0.02930614828868212</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>919592258.9709558</v>
+        <v>1378714077.845181</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09942445514031384</v>
+        <v>0.1069980036401423</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04904102944780251</v>
+        <v>0.03632287763443588</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1421354648.191223</v>
+        <v>1314966276.299546</v>
       </c>
       <c r="F32" t="n">
-        <v>0.116878317051278</v>
+        <v>0.09238966892655914</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02450313646260329</v>
+        <v>0.03398174122624627</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2834864413.640283</v>
+        <v>1913093445.062586</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1263335129176382</v>
+        <v>0.1439034874884604</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04423380932616052</v>
+        <v>0.04272461799182464</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,22 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1245246628.729256</v>
+        <v>1208605183.819137</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08971343649421903</v>
+        <v>0.07919664056772313</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01914602703996674</v>
+        <v>0.0244435961171688</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1224514134.039445</v>
+        <v>1113387301.332109</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09863030586827667</v>
+        <v>0.07842820354169266</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03031665018422442</v>
+        <v>0.02892365794776575</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3095943740.175353</v>
+        <v>2961446235.823635</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1411331766267539</v>
+        <v>0.1515598518062975</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02043969721317455</v>
+        <v>0.02000825704130124</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2471600442.331024</v>
+        <v>1882146839.517093</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07350842810456217</v>
+        <v>0.1100313702576985</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03676647774997984</v>
+        <v>0.0295425129315372</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1803745885.034627</v>
+        <v>1868606948.51396</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07540764766095073</v>
+        <v>0.1217135014041013</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03375745219915336</v>
+        <v>0.03347477357953651</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2178992149.4373</v>
+        <v>1660716374.914626</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1498951150461195</v>
+        <v>0.1854885066576669</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02787117253972511</v>
+        <v>0.02400081241737324</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1727799785.817457</v>
+        <v>1455058614.239014</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1098526381843147</v>
+        <v>0.1306635574828665</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05295641919005034</v>
+        <v>0.05889337316345349</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2067607918.458497</v>
+        <v>2464901624.794129</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1546655135637097</v>
+        <v>0.1196795148666636</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03543099960667107</v>
+        <v>0.04417347640570248</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3834402199.877913</v>
+        <v>3919924470.021871</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08373231625301154</v>
+        <v>0.1219016432326454</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03353618010816686</v>
+        <v>0.03393122956976099</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2809500804.955488</v>
+        <v>1960343458.467779</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2029470983426383</v>
+        <v>0.1507663054153528</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01858784910926115</v>
+        <v>0.01796297878707423</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1840659693.242821</v>
+        <v>1839976724.173362</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07380311124613556</v>
+        <v>0.08745158426977466</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02621538623742607</v>
+        <v>0.02519497309266524</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2501853287.3243</v>
+        <v>2213086360.79532</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1294038878853721</v>
+        <v>0.178785807132138</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0546061024385024</v>
+        <v>0.04892995295042122</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4316030068.845363</v>
+        <v>3521272031.693119</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1447381094862456</v>
+        <v>0.1672357574772784</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04584258048786949</v>
+        <v>0.03898043483414586</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4963095745.778531</v>
+        <v>4500233566.96749</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1331021224718509</v>
+        <v>0.1849941254604215</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05234665876403975</v>
+        <v>0.04270130753613775</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4375266758.017006</v>
+        <v>3620545330.629628</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0878158992480261</v>
+        <v>0.1064271323063696</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03703237395837339</v>
+        <v>0.03130078727897338</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1229894507.505797</v>
+        <v>1799301736.61424</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1290364479071342</v>
+        <v>0.1609828039368323</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03325726016097924</v>
+        <v>0.02801813705298423</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3525832946.404302</v>
+        <v>3243249083.584551</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1361185714465209</v>
+        <v>0.1367436705058744</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04304611587073948</v>
+        <v>0.05293676697484417</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,16 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1227456497.282851</v>
+        <v>1432623439.841095</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1777212195083175</v>
+        <v>0.1769988746139956</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03858261915702849</v>
+        <v>0.04472143902777673</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5003074075.186781</v>
+        <v>4692861146.929596</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1190120340942208</v>
+        <v>0.09438337137121416</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06018256913258415</v>
+        <v>0.04983656304150656</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2532099841.667268</v>
+        <v>3299418646.723133</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1499223898679902</v>
+        <v>0.1608988143637897</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03245418821077704</v>
+        <v>0.03521324905739816</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4780536127.234818</v>
+        <v>4754324703.724715</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1421031983967422</v>
+        <v>0.1576080326320107</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04117888529586108</v>
+        <v>0.04442966007210601</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3760237411.543609</v>
+        <v>4563218199.093922</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1587829578306889</v>
+        <v>0.1692477268525473</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02604224392713996</v>
+        <v>0.02856180956328725</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1334957930.495676</v>
+        <v>1618304496.072067</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1558939261184797</v>
+        <v>0.09944005930173082</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04648217495200754</v>
+        <v>0.04850461725470628</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3027495389.045788</v>
+        <v>3547266777.490819</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1720450376224456</v>
+        <v>0.140391455557232</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02568273716557551</v>
+        <v>0.01960855858109701</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1427368521.880589</v>
+        <v>1352321409.441166</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1508145310599958</v>
+        <v>0.1282383615132861</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03072315501279492</v>
+        <v>0.0319536162230205</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5058158118.438768</v>
+        <v>3670875710.016119</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1296640615938326</v>
+        <v>0.09459994789177861</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03930937876907608</v>
+        <v>0.04245165354416439</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3102474047.529604</v>
+        <v>3443252982.271143</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1988500167954954</v>
+        <v>0.1422553495508435</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02759844265358427</v>
+        <v>0.02959834982513472</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2545030241.694068</v>
+        <v>2914216233.353944</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1405101125211794</v>
+        <v>0.1274793082222579</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02269529919014645</v>
+        <v>0.02249110243690905</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1468739699.403674</v>
+        <v>1608406266.599222</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1712848919137905</v>
+        <v>0.181486268066838</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03072900211601528</v>
+        <v>0.0331469115848788</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3518143711.357463</v>
+        <v>4762157867.756035</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09401475689213469</v>
+        <v>0.0753623451683556</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0315337808030685</v>
+        <v>0.03729747964462111</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5519749553.220975</v>
+        <v>5334026465.94371</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1470832295007858</v>
+        <v>0.11821300748401</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03221116982684773</v>
+        <v>0.03153497781622636</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5396173652.54012</v>
+        <v>5941892551.868583</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1164641257927931</v>
+        <v>0.1092529986119088</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02768265914493974</v>
+        <v>0.02618849558030874</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4451070457.712449</v>
+        <v>4314192354.622592</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1472964740409604</v>
+        <v>0.1482572232419321</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03771165411653985</v>
+        <v>0.04209227001845954</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2676075369.491199</v>
+        <v>2697684369.41982</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09567089363527459</v>
+        <v>0.08841854368304891</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03767136279307819</v>
+        <v>0.04817117453606955</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5937872064.348125</v>
+        <v>5434905818.719141</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1368264805526755</v>
+        <v>0.1597094160476736</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03702232923813431</v>
+        <v>0.04211890222103418</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2175106286.379389</v>
+        <v>2144810317.825964</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1277711066707829</v>
+        <v>0.1795240198377187</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04698759006826289</v>
+        <v>0.05059255664067056</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3453933534.286551</v>
+        <v>2748320417.575773</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06245286654537592</v>
+        <v>0.09325933127605415</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03486076204459418</v>
+        <v>0.03850876392927462</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4109670313.931725</v>
+        <v>4825867316.542652</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1847417397340979</v>
+        <v>0.1242152402580151</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02867774157776663</v>
+        <v>0.02760177437271802</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1682017882.753234</v>
+        <v>1585625325.864144</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07950944681653194</v>
+        <v>0.1086546430982659</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03374470695404585</v>
+        <v>0.04705596716619696</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2378312278.193465</v>
+        <v>3543097408.009899</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09325504651723639</v>
+        <v>0.07723677650054474</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04233518951741173</v>
+        <v>0.0430447576785264</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2934829707.069296</v>
+        <v>3570404872.286719</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1351608244444299</v>
+        <v>0.1840571922629415</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0250721564140724</v>
+        <v>0.02252785458940868</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2152455756.120516</v>
+        <v>1565584581.175666</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1140340055920605</v>
+        <v>0.1161854730332297</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03252427971142637</v>
+        <v>0.03156407933364754</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3490683671.634829</v>
+        <v>5177959161.656091</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1009704142940996</v>
+        <v>0.07947660505612929</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02139386166211748</v>
+        <v>0.03424578609667668</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1693793014.049194</v>
+        <v>2093291780.096259</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1331088958009833</v>
+        <v>0.1850919633487516</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02885749919446517</v>
+        <v>0.02021218134109768</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,13 +2614,13 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4212546312.998566</v>
+        <v>3532167121.07798</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1220150052434724</v>
+        <v>0.1304078429010294</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04507796558148845</v>
+        <v>0.03449192814763404</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1567208246.675033</v>
+        <v>1575839028.284278</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1713373435315312</v>
+        <v>0.1364903751275137</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03015598521545755</v>
+        <v>0.03953943266889287</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3753295886.1451</v>
+        <v>4523138017.593602</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07759900716553418</v>
+        <v>0.08431028525961574</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02602688251434324</v>
+        <v>0.02883560127309462</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3911597897.070809</v>
+        <v>4240493323.290569</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1264101098166159</v>
+        <v>0.09556216467039309</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02725180999192808</v>
+        <v>0.03178929416806645</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5421669458.650023</v>
+        <v>4633037972.92546</v>
       </c>
       <c r="F82" t="n">
-        <v>0.173139474077991</v>
+        <v>0.1765876123039607</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02493713613767547</v>
+        <v>0.02800115323015912</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2037869078.806406</v>
+        <v>1851833499.505857</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09826906313600124</v>
+        <v>0.1213431822655974</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02748372347361082</v>
+        <v>0.039099426052724</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1981192565.567429</v>
+        <v>2539780029.53607</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08024979272393469</v>
+        <v>0.1090062314103235</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03978107187646392</v>
+        <v>0.03585879312866578</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3303293260.795425</v>
+        <v>2364614483.058324</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1384227409826662</v>
+        <v>0.1752168161992673</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03442162587227503</v>
+        <v>0.04016621602686826</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2085405931.834563</v>
+        <v>2280881925.566558</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1529768643723448</v>
+        <v>0.1589178845882789</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0190721457364917</v>
+        <v>0.02171142938114672</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1239230234.572159</v>
+        <v>964477072.9547495</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1478184699887048</v>
+        <v>0.1201036995916104</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03966078522471894</v>
+        <v>0.03915579771973302</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2688982569.998512</v>
+        <v>3018237581.235576</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1130484628722581</v>
+        <v>0.1609556598001238</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02586758747646314</v>
+        <v>0.03234145209084899</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2407823933.964468</v>
+        <v>2690760059.991845</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1581137246409484</v>
+        <v>0.1254039003840038</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0357818602324942</v>
+        <v>0.03607469500069331</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1305059558.402045</v>
+        <v>1927938831.344546</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09691666933428236</v>
+        <v>0.1250319835410761</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04086919456947759</v>
+        <v>0.03963989664681707</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1585320938.572548</v>
+        <v>1682165530.584507</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1731650813141843</v>
+        <v>0.1268524806202502</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06077820843683291</v>
+        <v>0.03764119777799441</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2833888301.025153</v>
+        <v>1814163762.21946</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09427372099363826</v>
+        <v>0.09882507302979246</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03444961567987638</v>
+        <v>0.03181443934719577</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4473903134.586637</v>
+        <v>3325609295.809296</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1173920982710868</v>
+        <v>0.1055342113265254</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05378825833856585</v>
+        <v>0.04811348707677729</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1658147925.35403</v>
+        <v>2086469440.029561</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1402681487481234</v>
+        <v>0.1171557142129641</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02805066491785755</v>
+        <v>0.03120047569249113</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2733072785.891595</v>
+        <v>2017573206.577513</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08594217574692808</v>
+        <v>0.1046519754314778</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05163475492812871</v>
+        <v>0.04038180911770937</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2073880168.929299</v>
+        <v>1544801065.478721</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1242348856159712</v>
+        <v>0.1009825333210697</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03771001159410567</v>
+        <v>0.04309795615951694</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4149681485.203382</v>
+        <v>5295254790.599809</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1110863962852433</v>
+        <v>0.1274793103594322</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02604782609682635</v>
+        <v>0.02620359047307272</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3655523070.015969</v>
+        <v>2681691798.229303</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08250225259690892</v>
+        <v>0.1065822845247308</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03061179824520435</v>
+        <v>0.01994052210749885</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2094492192.512852</v>
+        <v>2222231298.778492</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1180786642903783</v>
+        <v>0.09288829708842401</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03161841978261384</v>
+        <v>0.02979082183453359</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4661393689.012876</v>
+        <v>3912233127.455491</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1272180253604334</v>
+        <v>0.1226118986470755</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01924893470113988</v>
+        <v>0.02135521606999627</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2907494108.533625</v>
+        <v>2835903987.335649</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1570404720187394</v>
+        <v>0.2216677797344369</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05582703586405882</v>
+        <v>0.04221687023802876</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_436.xlsx
+++ b/output/fit_clients/fit_round_436.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2234449083.936922</v>
+        <v>2194322999.973425</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08117859320154311</v>
+        <v>0.112883835332334</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03804208663904702</v>
+        <v>0.03156068478235241</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1981977829.524192</v>
+        <v>2545862834.658667</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1123582968548499</v>
+        <v>0.1376743856413081</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05046131279311639</v>
+        <v>0.04271902672413513</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5015069364.237362</v>
+        <v>4045992419.092218</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1261379353070151</v>
+        <v>0.1277702364808786</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02842438276695047</v>
+        <v>0.02970965548617887</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>221</v>
+      </c>
+      <c r="J4" t="n">
+        <v>435</v>
+      </c>
+      <c r="K4" t="n">
+        <v>37.19978955969255</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3826170601.070099</v>
+        <v>4043296022.718202</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09720302930351146</v>
+        <v>0.1065797278901242</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04514430708627825</v>
+        <v>0.03194466907322627</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>181</v>
+      </c>
+      <c r="J5" t="n">
+        <v>436</v>
+      </c>
+      <c r="K5" t="n">
+        <v>46.12265948282444</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2303297521.35777</v>
+        <v>2512913369.625031</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09438405360872852</v>
+        <v>0.1433882658848345</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03963018331003582</v>
+        <v>0.05182726233525081</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2992515841.063742</v>
+        <v>3072239804.648565</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09354319072153799</v>
+        <v>0.06695730860253206</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03597495272184473</v>
+        <v>0.04256042193893951</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +709,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2600130949.007793</v>
+        <v>3155845875.738628</v>
       </c>
       <c r="F8" t="n">
-        <v>0.175744846779348</v>
+        <v>0.1718847853037399</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02847810788108365</v>
+        <v>0.02709780333006744</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>118</v>
+      </c>
+      <c r="J8" t="n">
+        <v>433</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +750,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1748301219.729941</v>
+        <v>2009718234.835257</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1311725606198917</v>
+        <v>0.1324029961136498</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03023346889109606</v>
+        <v>0.02325235079630435</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5076766310.741191</v>
+        <v>5564351301.024107</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1415037949836979</v>
+        <v>0.1758691259471278</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0401890735887475</v>
+        <v>0.03875423069762021</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>343</v>
+      </c>
+      <c r="J10" t="n">
+        <v>435</v>
+      </c>
+      <c r="K10" t="n">
+        <v>42.75631624303826</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +816,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4028018215.574373</v>
+        <v>3739633013.156179</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1802071486938922</v>
+        <v>0.1509122557547042</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04025614676928048</v>
+        <v>0.04000363059996383</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>180</v>
+      </c>
+      <c r="J11" t="n">
+        <v>435</v>
+      </c>
+      <c r="K11" t="n">
+        <v>45.71702061301114</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +853,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2567751049.134395</v>
+        <v>2056674057.919432</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1565346228724684</v>
+        <v>0.174750836094788</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05229389142422915</v>
+        <v>0.03339931770847884</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,17 +894,24 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5035024938.872447</v>
+        <v>5323775908.684781</v>
       </c>
       <c r="F13" t="n">
-        <v>0.100667459030696</v>
+        <v>0.06891181061519833</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03115058742177579</v>
+        <v>0.01952543166447052</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>227</v>
+      </c>
+      <c r="J13" t="n">
+        <v>436</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,22 +923,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2523857151.47576</v>
+        <v>3673070677.254065</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1352776564608877</v>
+        <v>0.1667147118307381</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0359982941274563</v>
+        <v>0.03402805566188261</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>94</v>
+      </c>
+      <c r="J14" t="n">
+        <v>436</v>
+      </c>
+      <c r="K14" t="n">
+        <v>54.59691527967517</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +960,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1161666480.70667</v>
+        <v>1417877893.492045</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06753664583314767</v>
+        <v>0.07751272991518499</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04462145953691139</v>
+        <v>0.04199477380050141</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +995,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1897378588.72423</v>
+        <v>2785229729.172151</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07162057047966207</v>
+        <v>0.1067015713537058</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04052713531744454</v>
+        <v>0.04271594399894638</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1030,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4444167047.206579</v>
+        <v>4718690034.222434</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1475060062143547</v>
+        <v>0.1725776202401034</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04031993394169726</v>
+        <v>0.04261635571846732</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>212</v>
+      </c>
+      <c r="J17" t="n">
+        <v>436</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1065,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2963603467.063335</v>
+        <v>2639969888.470767</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1636830191862951</v>
+        <v>0.1519120817715616</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02304460661221533</v>
+        <v>0.03274646912351337</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>111</v>
+      </c>
+      <c r="J18" t="n">
+        <v>427</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1310302415.622255</v>
+        <v>1066987510.522854</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1766549675206946</v>
+        <v>0.1527226445587709</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02174432914328993</v>
+        <v>0.02610237127834602</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1141,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2725271197.60294</v>
+        <v>1905423657.105204</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1423614090082065</v>
+        <v>0.1554703602277731</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02125874695161603</v>
+        <v>0.02088891499225544</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1176,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1780597798.211667</v>
+        <v>1761480414.690086</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06762242903480312</v>
+        <v>0.064096791878195</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03770124501133021</v>
+        <v>0.02986980881547917</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1205,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2773931879.070323</v>
+        <v>3829107407.51798</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1001223775792355</v>
+        <v>0.1251337525911183</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04881196267823296</v>
+        <v>0.0384600290006552</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>128</v>
+      </c>
+      <c r="J22" t="n">
+        <v>436</v>
+      </c>
+      <c r="K22" t="n">
+        <v>47.20817761912357</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1242,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1044082750.848695</v>
+        <v>1254007717.982738</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1305148372226928</v>
+        <v>0.156286134977681</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03307593080359258</v>
+        <v>0.04490379771662877</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1277,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4074404306.625585</v>
+        <v>3390847980.38532</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1381543901716436</v>
+        <v>0.09427301608680677</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02518401551590046</v>
+        <v>0.02953628917894955</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>137</v>
+      </c>
+      <c r="J24" t="n">
+        <v>429</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1312,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1101888596.714595</v>
+        <v>1440691255.223807</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1227018724759468</v>
+        <v>0.08877687301734323</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02141350415974157</v>
+        <v>0.01860540169305261</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1347,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1432299702.4772</v>
+        <v>1447796258.35788</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1186113983084955</v>
+        <v>0.09928512753150118</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03233750006505707</v>
+        <v>0.03484085575098642</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1382,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3819736592.512311</v>
+        <v>4449126818.539052</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1016384713505154</v>
+        <v>0.1453655017529768</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01789872509644175</v>
+        <v>0.01946179169750707</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>187</v>
+      </c>
+      <c r="J27" t="n">
+        <v>436</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1417,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3445732334.730776</v>
+        <v>3888477583.214821</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1087961977594899</v>
+        <v>0.1090850746109221</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03353165410929206</v>
+        <v>0.03404688061083149</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>106</v>
+      </c>
+      <c r="J28" t="n">
+        <v>436</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1452,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4503189273.032453</v>
+        <v>5068817201.126009</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1129255868554339</v>
+        <v>0.09869452170490586</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04358996597520045</v>
+        <v>0.02815382991673681</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>359</v>
+      </c>
+      <c r="J29" t="n">
+        <v>435</v>
+      </c>
+      <c r="K29" t="n">
+        <v>35.70053741191058</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1970136238.356355</v>
+        <v>2113378236.239966</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1073392102720202</v>
+        <v>0.120008861218178</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02930614828868212</v>
+        <v>0.0263217600083258</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1378714077.845181</v>
+        <v>1299228162.756549</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1069980036401423</v>
+        <v>0.1074986240006308</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03632287763443588</v>
+        <v>0.04032877815717933</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1559,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1314966276.299546</v>
+        <v>1154352973.089316</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09238966892655914</v>
+        <v>0.08952175634638943</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03398174122624627</v>
+        <v>0.03700016418581201</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1913093445.062586</v>
+        <v>1897469226.000962</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1439034874884604</v>
+        <v>0.1680913362050934</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04272461799182464</v>
+        <v>0.04769819789149487</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1208605183.819137</v>
+        <v>1136271440.261632</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07919664056772313</v>
+        <v>0.07747917743648028</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0244435961171688</v>
+        <v>0.02019344023509266</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1670,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1113387301.332109</v>
+        <v>1094732238.704369</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07842820354169266</v>
+        <v>0.08472225144305921</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02892365794776575</v>
+        <v>0.0340303781954971</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1705,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2961446235.823635</v>
+        <v>2245637472.634801</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1515598518062975</v>
+        <v>0.1376936014531384</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02000825704130124</v>
+        <v>0.02743939712034426</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1740,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1882146839.517093</v>
+        <v>2412481667.01165</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1100313702576985</v>
+        <v>0.08437587015360062</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0295425129315372</v>
+        <v>0.03459794644537196</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1868606948.51396</v>
+        <v>2197806090.959388</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1217135014041013</v>
+        <v>0.09358142864425617</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03347477357953651</v>
+        <v>0.03092435598825783</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1660716374.914626</v>
+        <v>2164791299.931371</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1854885066576669</v>
+        <v>0.1642331689177566</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02400081241737324</v>
+        <v>0.02518641849916427</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1455058614.239014</v>
+        <v>1264315897.023215</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1306635574828665</v>
+        <v>0.1336828105324283</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05889337316345349</v>
+        <v>0.05444106093626136</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2464901624.794129</v>
+        <v>2666243725.260086</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1196795148666636</v>
+        <v>0.1385909317469602</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04417347640570248</v>
+        <v>0.03695577306265151</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1909,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3919924470.021871</v>
+        <v>2811103322.795565</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1219016432326454</v>
+        <v>0.102267868626715</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03393122956976099</v>
+        <v>0.02876153506695378</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>189</v>
+      </c>
+      <c r="J42" t="n">
+        <v>435</v>
+      </c>
+      <c r="K42" t="n">
+        <v>23.53777714387073</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1946,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1960343458.467779</v>
+        <v>1966384426.866625</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1507663054153528</v>
+        <v>0.1739417308222431</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01796297878707423</v>
+        <v>0.01989716114945635</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1981,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1839976724.173362</v>
+        <v>1515775620.600156</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08745158426977466</v>
+        <v>0.07511251109808569</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02519497309266524</v>
+        <v>0.02632199225148805</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2016,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2213086360.79532</v>
+        <v>1534040138.202327</v>
       </c>
       <c r="F45" t="n">
-        <v>0.178785807132138</v>
+        <v>0.1579155965624609</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04892995295042122</v>
+        <v>0.05339931970277616</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,17 +2057,24 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3521272031.693119</v>
+        <v>4876264858.340183</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1672357574772784</v>
+        <v>0.1561917271258878</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03898043483414586</v>
+        <v>0.0498402898873905</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>259</v>
+      </c>
+      <c r="J46" t="n">
+        <v>436</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2086,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4500233566.96749</v>
+        <v>3994361177.863982</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1849941254604215</v>
+        <v>0.2029674570916774</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04270130753613775</v>
+        <v>0.03680303810764966</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>196</v>
+      </c>
+      <c r="J47" t="n">
+        <v>435</v>
+      </c>
+      <c r="K47" t="n">
+        <v>39.37000795149721</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2123,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3620545330.629628</v>
+        <v>4676193610.685804</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1064271323063696</v>
+        <v>0.1078225875308062</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03130078727897338</v>
+        <v>0.03217023091491189</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>222</v>
+      </c>
+      <c r="J48" t="n">
+        <v>435</v>
+      </c>
+      <c r="K48" t="n">
+        <v>40.87020140587936</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2166,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1799301736.61424</v>
+        <v>1206813995.649867</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1609828039368323</v>
+        <v>0.1724156061921964</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02801813705298423</v>
+        <v>0.03608140388979542</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2195,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3243249083.584551</v>
+        <v>2776731802.175618</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1367436705058744</v>
+        <v>0.1477992096264914</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05293676697484417</v>
+        <v>0.03390557857250148</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>153</v>
+      </c>
+      <c r="J50" t="n">
+        <v>435</v>
+      </c>
+      <c r="K50" t="n">
+        <v>24.15632996349364</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2232,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1432623439.841095</v>
+        <v>1177828108.749758</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1769988746139956</v>
+        <v>0.1226149050465979</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04472143902777673</v>
+        <v>0.03866059991489657</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,17 +2273,24 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4692861146.929596</v>
+        <v>3990660218.22731</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09438337137121416</v>
+        <v>0.1302804727255456</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04983656304150656</v>
+        <v>0.06195186210388334</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>249</v>
+      </c>
+      <c r="J52" t="n">
+        <v>436</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2302,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3299418646.723133</v>
+        <v>3194843869.91171</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1608988143637897</v>
+        <v>0.1521258646645498</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03521324905739816</v>
+        <v>0.03034399023936761</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>64</v>
+      </c>
+      <c r="J53" t="n">
+        <v>433</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,16 +2343,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4754324703.724715</v>
+        <v>4817754516.019338</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1576080326320107</v>
+        <v>0.1597868636532629</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04442966007210601</v>
+        <v>0.04408905900475767</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>232</v>
+      </c>
+      <c r="J54" t="n">
+        <v>435</v>
+      </c>
+      <c r="K54" t="n">
+        <v>38.74711403943058</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2374,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4563218199.093922</v>
+        <v>3634064559.769558</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1692477268525473</v>
+        <v>0.1791484751225171</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02856180956328725</v>
+        <v>0.027685044955543</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>216</v>
+      </c>
+      <c r="J55" t="n">
+        <v>435</v>
+      </c>
+      <c r="K55" t="n">
+        <v>34.62902093805183</v>
       </c>
     </row>
     <row r="56">
@@ -1998,17 +2417,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1618304496.072067</v>
+        <v>1658074057.031791</v>
       </c>
       <c r="F56" t="n">
-        <v>0.09944005930173082</v>
+        <v>0.1075638072592926</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04850461725470628</v>
+        <v>0.03593700322218767</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2446,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3547266777.490819</v>
+        <v>3213791708.032569</v>
       </c>
       <c r="F57" t="n">
-        <v>0.140391455557232</v>
+        <v>0.1209829222533978</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01960855858109701</v>
+        <v>0.02111934320382969</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>189</v>
+      </c>
+      <c r="J57" t="n">
+        <v>432</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2487,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1352321409.441166</v>
+        <v>1913454829.199087</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1282383615132861</v>
+        <v>0.1617400860629189</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0319536162230205</v>
+        <v>0.02884377437594011</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2516,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3670875710.016119</v>
+        <v>4758814084.653248</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09459994789177861</v>
+        <v>0.1195582807609688</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04245165354416439</v>
+        <v>0.03044240435867274</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>213</v>
+      </c>
+      <c r="J59" t="n">
+        <v>436</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2551,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3443252982.271143</v>
+        <v>2830009184.364221</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1422553495508435</v>
+        <v>0.1766115123353434</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02959834982513472</v>
+        <v>0.03255089707703539</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>85</v>
+      </c>
+      <c r="J60" t="n">
+        <v>434</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2592,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2914216233.353944</v>
+        <v>2535796714.743108</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1274793082222579</v>
+        <v>0.1429696568621446</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02249110243690905</v>
+        <v>0.02796667654351442</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2627,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1608406266.599222</v>
+        <v>1322867311.358758</v>
       </c>
       <c r="F62" t="n">
-        <v>0.181486268066838</v>
+        <v>0.1878502119067797</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0331469115848788</v>
+        <v>0.03274903647994579</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2656,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4762157867.756035</v>
+        <v>4910725964.066849</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0753623451683556</v>
+        <v>0.07269550389823495</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03729747964462111</v>
+        <v>0.04644009997564921</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>217</v>
+      </c>
+      <c r="J63" t="n">
+        <v>436</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2691,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5334026465.94371</v>
+        <v>3806916704.673656</v>
       </c>
       <c r="F64" t="n">
-        <v>0.11821300748401</v>
+        <v>0.1375748085031019</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03153497781622636</v>
+        <v>0.02727868034025023</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>218</v>
+      </c>
+      <c r="J64" t="n">
+        <v>436</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,23 +2726,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5941892551.868583</v>
+        <v>5190815634.602456</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1092529986119088</v>
+        <v>0.1472115563828936</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02618849558030874</v>
+        <v>0.02595382464159373</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>315</v>
+      </c>
+      <c r="J65" t="n">
+        <v>436</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2761,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4314192354.622592</v>
+        <v>3698830901.853212</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1482572232419321</v>
+        <v>0.1135166154002595</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04209227001845954</v>
+        <v>0.03446731502359042</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>215</v>
+      </c>
+      <c r="J66" t="n">
+        <v>435</v>
+      </c>
+      <c r="K66" t="n">
+        <v>33.47253491987599</v>
       </c>
     </row>
     <row r="67">
@@ -2306,17 +2804,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2697684369.41982</v>
+        <v>2396664838.367438</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08841854368304891</v>
+        <v>0.07735781507342757</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04817117453606955</v>
+        <v>0.04307601553046313</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>389</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,16 +2839,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5434905818.719141</v>
+        <v>5574679290.825856</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1597094160476736</v>
+        <v>0.1277669843644902</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04211890222103418</v>
+        <v>0.0517345908456691</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>238</v>
+      </c>
+      <c r="J68" t="n">
+        <v>435</v>
+      </c>
+      <c r="K68" t="n">
+        <v>35.97360781460956</v>
       </c>
     </row>
     <row r="69">
@@ -2362,17 +2876,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2144810317.825964</v>
+        <v>1641311785.578885</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1795240198377187</v>
+        <v>0.1750026774778928</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05059255664067056</v>
+        <v>0.04922739247145608</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,16 +2911,25 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2748320417.575773</v>
+        <v>3238883436.51933</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09325933127605415</v>
+        <v>0.09603537966034426</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03850876392927462</v>
+        <v>0.03069360449650125</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>63</v>
+      </c>
+      <c r="J70" t="n">
+        <v>435</v>
+      </c>
+      <c r="K70" t="n">
+        <v>41.35215253574516</v>
       </c>
     </row>
     <row r="71">
@@ -2412,23 +2942,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4825867316.542652</v>
+        <v>3518176861.702704</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1242152402580151</v>
+        <v>0.1572731535498811</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02760177437271802</v>
+        <v>0.03384984476275617</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>301</v>
+      </c>
+      <c r="J71" t="n">
+        <v>434</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2977,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1585625325.864144</v>
+        <v>1822605532.546225</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1086546430982659</v>
+        <v>0.08624986790952444</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04705596716619696</v>
+        <v>0.03435864007413537</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,16 +3018,25 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3543097408.009899</v>
+        <v>3381471312.605256</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07723677650054474</v>
+        <v>0.09241302284839244</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0430447576785264</v>
+        <v>0.03553796753421034</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>31</v>
+      </c>
+      <c r="J73" t="n">
+        <v>436</v>
+      </c>
+      <c r="K73" t="n">
+        <v>69.42393088820248</v>
       </c>
     </row>
     <row r="74">
@@ -2502,17 +3055,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3570404872.286719</v>
+        <v>3342232758.835199</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1840571922629415</v>
+        <v>0.1347055147036944</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02252785458940868</v>
+        <v>0.02188781969929184</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>127</v>
+      </c>
+      <c r="J74" t="n">
+        <v>432</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3090,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1565584581.175666</v>
+        <v>1567229135.472148</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1161854730332297</v>
+        <v>0.1548143433567411</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03156407933364754</v>
+        <v>0.02470966015136558</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3119,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5177959161.656091</v>
+        <v>4171184159.420493</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07947660505612929</v>
+        <v>0.1204399919043612</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03424578609667668</v>
+        <v>0.02662853406686162</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>208</v>
+      </c>
+      <c r="J76" t="n">
+        <v>435</v>
+      </c>
+      <c r="K76" t="n">
+        <v>37.87522952589452</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3156,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2093291780.096259</v>
+        <v>2168772704.71967</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1850919633487516</v>
+        <v>0.1862940425203209</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02021218134109768</v>
+        <v>0.02150703359549783</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3191,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3532167121.07798</v>
+        <v>2949503347.196152</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1304078429010294</v>
+        <v>0.08959049719422359</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03449192814763404</v>
+        <v>0.05174761016027976</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>218</v>
+      </c>
+      <c r="J78" t="n">
+        <v>433</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3226,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1575839028.284278</v>
+        <v>1201373178.553492</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1364903751275137</v>
+        <v>0.1535441740203727</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03953943266889287</v>
+        <v>0.02806566478853341</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3261,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4523138017.593602</v>
+        <v>3799942105.381617</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08431028525961574</v>
+        <v>0.10659706488866</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02883560127309462</v>
+        <v>0.02650974452327465</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>212</v>
+      </c>
+      <c r="J80" t="n">
+        <v>436</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2698,17 +3302,24 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4240493323.290569</v>
+        <v>4141344988.32559</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09556216467039309</v>
+        <v>0.08281358672949109</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03178929416806645</v>
+        <v>0.02229904441414842</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>201</v>
+      </c>
+      <c r="J81" t="n">
+        <v>436</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,23 +3331,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4633037972.92546</v>
+        <v>4481889044.157536</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1765876123039607</v>
+        <v>0.1864224960936303</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02800115323015912</v>
+        <v>0.02220196025020053</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>293</v>
+      </c>
+      <c r="J82" t="n">
+        <v>436</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2754,17 +3372,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1851833499.505857</v>
+        <v>1795226308.514212</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1213431822655974</v>
+        <v>0.1046169398973435</v>
       </c>
       <c r="G83" t="n">
-        <v>0.039099426052724</v>
+        <v>0.03666988892242398</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2539780029.53607</v>
+        <v>2476757259.2422</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1090062314103235</v>
+        <v>0.1073197966287653</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03585879312866578</v>
+        <v>0.04157371255597295</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2364614483.058324</v>
+        <v>2398282436.525204</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1752168161992673</v>
+        <v>0.1705514279300683</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04016621602686826</v>
+        <v>0.03957865187656926</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>57</v>
+      </c>
+      <c r="J85" t="n">
+        <v>430</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2280881925.566558</v>
+        <v>1841351529.824562</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1589178845882789</v>
+        <v>0.1096947241454837</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02171142938114672</v>
+        <v>0.02092879191031077</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>964477072.9547495</v>
+        <v>949201058.6715457</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1201036995916104</v>
+        <v>0.1616065958539648</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03915579771973302</v>
+        <v>0.03743003546858845</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3547,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3018237581.235576</v>
+        <v>2848495750.591407</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1609556598001238</v>
+        <v>0.1361475281938617</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03234145209084899</v>
+        <v>0.03771702645518792</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>58</v>
+      </c>
+      <c r="J88" t="n">
+        <v>430</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2690760059.991845</v>
+        <v>3414150550.478396</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1254039003840038</v>
+        <v>0.1435366017300456</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03607469500069331</v>
+        <v>0.03139881599017249</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1927938831.344546</v>
+        <v>1381897823.827104</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1250319835410761</v>
+        <v>0.1178157373804016</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03963989664681707</v>
+        <v>0.043399169642471</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1682165530.584507</v>
+        <v>1924657691.057496</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1268524806202502</v>
+        <v>0.1874274147019454</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03764119777799441</v>
+        <v>0.03956715551719426</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3687,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1814163762.21946</v>
+        <v>2080199215.579425</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09882507302979246</v>
+        <v>0.1023814361201582</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03181443934719577</v>
+        <v>0.03583598999336814</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3325609295.809296</v>
+        <v>3867243300.007944</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1055342113265254</v>
+        <v>0.1188850198983477</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04811348707677729</v>
+        <v>0.03443167477702998</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>209</v>
+      </c>
+      <c r="J93" t="n">
+        <v>436</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2086469440.029561</v>
+        <v>1565833815.556118</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1171557142129641</v>
+        <v>0.1606617507788217</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03120047569249113</v>
+        <v>0.037564761530853</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2017573206.577513</v>
+        <v>2547884767.320423</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1046519754314778</v>
+        <v>0.1284979770131251</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04038180911770937</v>
+        <v>0.04062039832603197</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1544801065.478721</v>
+        <v>1713936777.699439</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1009825333210697</v>
+        <v>0.124126777161616</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04309795615951694</v>
+        <v>0.03193251552229866</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5295254790.599809</v>
+        <v>3400094467.581501</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1274793103594322</v>
+        <v>0.1207563874066074</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02620359047307272</v>
+        <v>0.01913318927003339</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>228</v>
+      </c>
+      <c r="J97" t="n">
+        <v>435</v>
+      </c>
+      <c r="K97" t="n">
+        <v>29.35866021784286</v>
       </c>
     </row>
     <row r="98">
@@ -3174,16 +3899,25 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2681691798.229303</v>
+        <v>3944071454.153612</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1065822845247308</v>
+        <v>0.09999804578396072</v>
       </c>
       <c r="G98" t="n">
-        <v>0.01994052210749885</v>
+        <v>0.02151710925001789</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>111</v>
+      </c>
+      <c r="J98" t="n">
+        <v>436</v>
+      </c>
+      <c r="K98" t="n">
+        <v>54.08824860255942</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2222231298.778492</v>
+        <v>2483052294.755793</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09288829708842401</v>
+        <v>0.1075710936959911</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02979082183453359</v>
+        <v>0.02533460393621034</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3912233127.455491</v>
+        <v>4277534925.144063</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1226118986470755</v>
+        <v>0.1626458099159587</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02135521606999627</v>
+        <v>0.01805181661813791</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>202</v>
+      </c>
+      <c r="J100" t="n">
+        <v>436</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2835903987.335649</v>
+        <v>3039020941.262615</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2216677797344369</v>
+        <v>0.1893357457810751</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04221687023802876</v>
+        <v>0.05039943305315245</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>39</v>
+      </c>
+      <c r="J101" t="n">
+        <v>434</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
